--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ghrl-Ghsr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ghrl-Ghsr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,57 +537,57 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.61204024379411</v>
+        <v>3.009842</v>
       </c>
       <c r="H2">
-        <v>2.61204024379411</v>
+        <v>6.019684</v>
       </c>
       <c r="I2">
-        <v>0.07726591168005129</v>
+        <v>0.08606200262629653</v>
       </c>
       <c r="J2">
-        <v>0.07726591168005129</v>
+        <v>0.06189095448397954</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.14813007524586</v>
+        <v>2.445194666666667</v>
       </c>
       <c r="N2">
-        <v>2.14813007524586</v>
+        <v>7.335584</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.838913138746902</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.872970787141563</v>
       </c>
       <c r="Q2">
-        <v>5.611002205446656</v>
+        <v>7.359649605909333</v>
       </c>
       <c r="R2">
-        <v>5.611002205446656</v>
+        <v>44.157897635456</v>
       </c>
       <c r="S2">
-        <v>0.07726591168005129</v>
+        <v>0.07219854475007054</v>
       </c>
       <c r="T2">
-        <v>0.07726591168005129</v>
+        <v>0.05402899525282227</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.63405506678127</v>
+        <v>3.009842</v>
       </c>
       <c r="H3">
-        <v>1.63405506678127</v>
+        <v>6.019684</v>
       </c>
       <c r="I3">
-        <v>0.04833645069988206</v>
+        <v>0.08606200262629653</v>
       </c>
       <c r="J3">
-        <v>0.04833645069988206</v>
+        <v>0.06189095448397954</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>2.14813007524586</v>
+        <v>0.07779633333333334</v>
       </c>
       <c r="N3">
-        <v>2.14813007524586</v>
+        <v>0.233389</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.02669086722188728</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.02777444563925412</v>
       </c>
       <c r="Q3">
-        <v>3.510162833560728</v>
+        <v>0.2341546715126667</v>
       </c>
       <c r="R3">
-        <v>3.510162833560728</v>
+        <v>1.404928029076</v>
       </c>
       <c r="S3">
-        <v>0.04833645069988206</v>
+        <v>0.002297069484948195</v>
       </c>
       <c r="T3">
-        <v>0.04833645069988206</v>
+        <v>0.001718986950876841</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.6246732133404</v>
+        <v>3.009842</v>
       </c>
       <c r="H4">
-        <v>12.6246732133404</v>
+        <v>6.019684</v>
       </c>
       <c r="I4">
-        <v>0.3734463463222037</v>
+        <v>0.08606200262629653</v>
       </c>
       <c r="J4">
-        <v>0.3734463463222037</v>
+        <v>0.06189095448397954</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.14813007524586</v>
+        <v>0.05058633333333334</v>
       </c>
       <c r="N4">
-        <v>2.14813007524586</v>
+        <v>0.151759</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.0173554851288038</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.01806007179330459</v>
       </c>
       <c r="Q4">
-        <v>27.1194402197273</v>
+        <v>0.1522568706926667</v>
       </c>
       <c r="R4">
-        <v>27.1194402197273</v>
+        <v>0.913541224156</v>
       </c>
       <c r="S4">
-        <v>0.3734463463222037</v>
+        <v>0.001493647806735763</v>
       </c>
       <c r="T4">
-        <v>0.3734463463222037</v>
+        <v>0.001117755081336817</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.0902217389212</v>
+        <v>3.009842</v>
       </c>
       <c r="H5">
-        <v>11.0902217389212</v>
+        <v>6.019684</v>
       </c>
       <c r="I5">
-        <v>0.3280562370459456</v>
+        <v>0.08606200262629653</v>
       </c>
       <c r="J5">
-        <v>0.3280562370459456</v>
+        <v>0.06189095448397954</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>2.14813007524586</v>
+        <v>0.34114</v>
       </c>
       <c r="N5">
-        <v>2.14813007524586</v>
+        <v>0.68228</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.117040508902407</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.08119469542587825</v>
       </c>
       <c r="Q5">
-        <v>23.82323885852207</v>
+        <v>1.02677749988</v>
       </c>
       <c r="R5">
-        <v>23.82323885852207</v>
+        <v>4.10710999952</v>
       </c>
       <c r="S5">
-        <v>0.3280562370459456</v>
+        <v>0.01007274058454203</v>
       </c>
       <c r="T5">
-        <v>0.3280562370459456</v>
+        <v>0.005025217198943613</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -785,114 +785,1230 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.27147456664699</v>
+        <v>1.651458</v>
       </c>
       <c r="H6">
-        <v>1.27147456664699</v>
+        <v>4.954374</v>
       </c>
       <c r="I6">
-        <v>0.0376110750220591</v>
+        <v>0.04722101118039367</v>
       </c>
       <c r="J6">
-        <v>0.0376110750220591</v>
+        <v>0.0509380452081225</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.14813007524586</v>
+        <v>2.445194666666667</v>
       </c>
       <c r="N6">
-        <v>2.14813007524586</v>
+        <v>7.335584</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.838913138746902</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.872970787141563</v>
       </c>
       <c r="Q6">
-        <v>2.731292756524596</v>
+        <v>4.038136293824</v>
       </c>
       <c r="R6">
-        <v>2.731292756524596</v>
+        <v>36.34322664441601</v>
       </c>
       <c r="S6">
-        <v>0.0376110750220591</v>
+        <v>0.0396143267041466</v>
       </c>
       <c r="T6">
-        <v>0.0376110750220591</v>
+        <v>0.04446742542078722</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.651458</v>
+      </c>
+      <c r="H7">
+        <v>4.954374</v>
+      </c>
+      <c r="I7">
+        <v>0.04722101118039367</v>
+      </c>
+      <c r="J7">
+        <v>0.0509380452081225</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.07779633333333334</v>
+      </c>
+      <c r="N7">
+        <v>0.233389</v>
+      </c>
+      <c r="O7">
+        <v>0.02669086722188728</v>
+      </c>
+      <c r="P7">
+        <v>0.02777444563925412</v>
+      </c>
+      <c r="Q7">
+        <v>0.128477377054</v>
+      </c>
+      <c r="R7">
+        <v>1.156296393486</v>
+      </c>
+      <c r="S7">
+        <v>0.001260369739499142</v>
+      </c>
+      <c r="T7">
+        <v>0.001414775967602867</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.651458</v>
+      </c>
+      <c r="H8">
+        <v>4.954374</v>
+      </c>
+      <c r="I8">
+        <v>0.04722101118039367</v>
+      </c>
+      <c r="J8">
+        <v>0.0509380452081225</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.05058633333333334</v>
+      </c>
+      <c r="N8">
+        <v>0.151759</v>
+      </c>
+      <c r="O8">
+        <v>0.0173554851288038</v>
+      </c>
+      <c r="P8">
+        <v>0.01806007179330459</v>
+      </c>
+      <c r="Q8">
+        <v>0.08354120487400001</v>
+      </c>
+      <c r="R8">
+        <v>0.7518708438660001</v>
+      </c>
+      <c r="S8">
+        <v>0.0008195435573084004</v>
+      </c>
+      <c r="T8">
+        <v>0.0009199447534692873</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.651458</v>
+      </c>
+      <c r="H9">
+        <v>4.954374</v>
+      </c>
+      <c r="I9">
+        <v>0.04722101118039367</v>
+      </c>
+      <c r="J9">
+        <v>0.0509380452081225</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.5</v>
+      </c>
+      <c r="M9">
+        <v>0.34114</v>
+      </c>
+      <c r="N9">
+        <v>0.68228</v>
+      </c>
+      <c r="O9">
+        <v>0.117040508902407</v>
+      </c>
+      <c r="P9">
+        <v>0.08119469542587825</v>
+      </c>
+      <c r="Q9">
+        <v>0.56337838212</v>
+      </c>
+      <c r="R9">
+        <v>3.38027029272</v>
+      </c>
+      <c r="S9">
+        <v>0.005526771179439526</v>
+      </c>
+      <c r="T9">
+        <v>0.004135899066263124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>4.57339065061766</v>
-      </c>
-      <c r="H7">
-        <v>4.57339065061766</v>
-      </c>
-      <c r="I7">
-        <v>0.1352839792298583</v>
-      </c>
-      <c r="J7">
-        <v>0.1352839792298583</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>2.14813007524586</v>
-      </c>
-      <c r="N7">
-        <v>2.14813007524586</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>9.824238002440026</v>
-      </c>
-      <c r="R7">
-        <v>9.824238002440026</v>
-      </c>
-      <c r="S7">
-        <v>0.1352839792298583</v>
-      </c>
-      <c r="T7">
-        <v>0.1352839792298583</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>12.93131633333333</v>
+      </c>
+      <c r="H10">
+        <v>38.793949</v>
+      </c>
+      <c r="I10">
+        <v>0.3697519604819139</v>
+      </c>
+      <c r="J10">
+        <v>0.3988572376577946</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.445194666666667</v>
+      </c>
+      <c r="N10">
+        <v>7.335584</v>
+      </c>
+      <c r="O10">
+        <v>0.838913138746902</v>
+      </c>
+      <c r="P10">
+        <v>0.872970787141563</v>
+      </c>
+      <c r="Q10">
+        <v>31.61958573124622</v>
+      </c>
+      <c r="R10">
+        <v>284.576271581216</v>
+      </c>
+      <c r="S10">
+        <v>0.3101897777257028</v>
+      </c>
+      <c r="T10">
+        <v>0.3481907167152344</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>12.93131633333333</v>
+      </c>
+      <c r="H11">
+        <v>38.793949</v>
+      </c>
+      <c r="I11">
+        <v>0.3697519604819139</v>
+      </c>
+      <c r="J11">
+        <v>0.3988572376577946</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.07779633333333334</v>
+      </c>
+      <c r="N11">
+        <v>0.233389</v>
+      </c>
+      <c r="O11">
+        <v>0.02669086722188728</v>
+      </c>
+      <c r="P11">
+        <v>0.02777444563925412</v>
+      </c>
+      <c r="Q11">
+        <v>1.006008995906778</v>
+      </c>
+      <c r="R11">
+        <v>9.054080963161001</v>
+      </c>
+      <c r="S11">
+        <v>0.009869000482255275</v>
+      </c>
+      <c r="T11">
+        <v>0.01107803866514948</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>12.93131633333333</v>
+      </c>
+      <c r="H12">
+        <v>38.793949</v>
+      </c>
+      <c r="I12">
+        <v>0.3697519604819139</v>
+      </c>
+      <c r="J12">
+        <v>0.3988572376577946</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.05058633333333334</v>
+      </c>
+      <c r="N12">
+        <v>0.151759</v>
+      </c>
+      <c r="O12">
+        <v>0.0173554851288038</v>
+      </c>
+      <c r="P12">
+        <v>0.01806007179330459</v>
+      </c>
+      <c r="Q12">
+        <v>0.6541478784767778</v>
+      </c>
+      <c r="R12">
+        <v>5.887330906291</v>
+      </c>
+      <c r="S12">
+        <v>0.006417224651489909</v>
+      </c>
+      <c r="T12">
+        <v>0.007203390347378922</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>12.93131633333333</v>
+      </c>
+      <c r="H13">
+        <v>38.793949</v>
+      </c>
+      <c r="I13">
+        <v>0.3697519604819139</v>
+      </c>
+      <c r="J13">
+        <v>0.3988572376577946</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.34114</v>
+      </c>
+      <c r="N13">
+        <v>0.68228</v>
+      </c>
+      <c r="O13">
+        <v>0.117040508902407</v>
+      </c>
+      <c r="P13">
+        <v>0.08119469542587825</v>
+      </c>
+      <c r="Q13">
+        <v>4.411389253953334</v>
+      </c>
+      <c r="R13">
+        <v>26.46833552372</v>
+      </c>
+      <c r="S13">
+        <v>0.04327595762246589</v>
+      </c>
+      <c r="T13">
+        <v>0.03238509193003176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>11.16662466666667</v>
+      </c>
+      <c r="H14">
+        <v>33.499874</v>
+      </c>
+      <c r="I14">
+        <v>0.3192931992408685</v>
+      </c>
+      <c r="J14">
+        <v>0.344426580689792</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.445194666666667</v>
+      </c>
+      <c r="N14">
+        <v>7.335584</v>
+      </c>
+      <c r="O14">
+        <v>0.838913138746902</v>
+      </c>
+      <c r="P14">
+        <v>0.872970787141563</v>
+      </c>
+      <c r="Q14">
+        <v>27.30457107960178</v>
+      </c>
+      <c r="R14">
+        <v>245.741139716416</v>
+      </c>
+      <c r="S14">
+        <v>0.2678592599556969</v>
+      </c>
+      <c r="T14">
+        <v>0.3006743432572447</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>11.16662466666667</v>
+      </c>
+      <c r="H15">
+        <v>33.499874</v>
+      </c>
+      <c r="I15">
+        <v>0.3192931992408685</v>
+      </c>
+      <c r="J15">
+        <v>0.344426580689792</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.07779633333333334</v>
+      </c>
+      <c r="N15">
+        <v>0.233389</v>
+      </c>
+      <c r="O15">
+        <v>0.02669086722188728</v>
+      </c>
+      <c r="P15">
+        <v>0.02777444563925412</v>
+      </c>
+      <c r="Q15">
+        <v>0.8687224547762222</v>
+      </c>
+      <c r="R15">
+        <v>7.818502092986</v>
+      </c>
+      <c r="S15">
+        <v>0.00852221238578962</v>
+      </c>
+      <c r="T15">
+        <v>0.009566257342082799</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>11.16662466666667</v>
+      </c>
+      <c r="H16">
+        <v>33.499874</v>
+      </c>
+      <c r="I16">
+        <v>0.3192931992408685</v>
+      </c>
+      <c r="J16">
+        <v>0.344426580689792</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.05058633333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.151759</v>
+      </c>
+      <c r="O16">
+        <v>0.0173554851288038</v>
+      </c>
+      <c r="P16">
+        <v>0.01806007179330459</v>
+      </c>
+      <c r="Q16">
+        <v>0.5648785975962222</v>
+      </c>
+      <c r="R16">
+        <v>5.083907378366</v>
+      </c>
+      <c r="S16">
+        <v>0.005541488371153084</v>
+      </c>
+      <c r="T16">
+        <v>0.006220368774780061</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>11.16662466666667</v>
+      </c>
+      <c r="H17">
+        <v>33.499874</v>
+      </c>
+      <c r="I17">
+        <v>0.3192931992408685</v>
+      </c>
+      <c r="J17">
+        <v>0.344426580689792</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.34114</v>
+      </c>
+      <c r="N17">
+        <v>0.68228</v>
+      </c>
+      <c r="O17">
+        <v>0.117040508902407</v>
+      </c>
+      <c r="P17">
+        <v>0.08119469542587825</v>
+      </c>
+      <c r="Q17">
+        <v>3.809382338786666</v>
+      </c>
+      <c r="R17">
+        <v>22.85629403272</v>
+      </c>
+      <c r="S17">
+        <v>0.03737023852822888</v>
+      </c>
+      <c r="T17">
+        <v>0.02796561131568434</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.567446666666667</v>
+      </c>
+      <c r="H18">
+        <v>4.70234</v>
+      </c>
+      <c r="I18">
+        <v>0.04481883073704414</v>
+      </c>
+      <c r="J18">
+        <v>0.0483467754965537</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.445194666666667</v>
+      </c>
+      <c r="N18">
+        <v>7.335584</v>
+      </c>
+      <c r="O18">
+        <v>0.838913138746902</v>
+      </c>
+      <c r="P18">
+        <v>0.872970787141563</v>
+      </c>
+      <c r="Q18">
+        <v>3.832712229617778</v>
+      </c>
+      <c r="R18">
+        <v>34.49441006656</v>
+      </c>
+      <c r="S18">
+        <v>0.03759910596857983</v>
+      </c>
+      <c r="T18">
+        <v>0.04220532266098291</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.567446666666667</v>
+      </c>
+      <c r="H19">
+        <v>4.70234</v>
+      </c>
+      <c r="I19">
+        <v>0.04481883073704414</v>
+      </c>
+      <c r="J19">
+        <v>0.0483467754965537</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.07779633333333334</v>
+      </c>
+      <c r="N19">
+        <v>0.233389</v>
+      </c>
+      <c r="O19">
+        <v>0.02669086722188728</v>
+      </c>
+      <c r="P19">
+        <v>0.02777444563925412</v>
+      </c>
+      <c r="Q19">
+        <v>0.1219416033622222</v>
+      </c>
+      <c r="R19">
+        <v>1.09747443026</v>
+      </c>
+      <c r="S19">
+        <v>0.001196253460242686</v>
+      </c>
+      <c r="T19">
+        <v>0.001342804887862254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.567446666666667</v>
+      </c>
+      <c r="H20">
+        <v>4.70234</v>
+      </c>
+      <c r="I20">
+        <v>0.04481883073704414</v>
+      </c>
+      <c r="J20">
+        <v>0.0483467754965537</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.05058633333333334</v>
+      </c>
+      <c r="N20">
+        <v>0.151759</v>
+      </c>
+      <c r="O20">
+        <v>0.0173554851288038</v>
+      </c>
+      <c r="P20">
+        <v>0.01806007179330459</v>
+      </c>
+      <c r="Q20">
+        <v>0.07929137956222224</v>
+      </c>
+      <c r="R20">
+        <v>0.7136224160600001</v>
+      </c>
+      <c r="S20">
+        <v>0.0007778525503471445</v>
+      </c>
+      <c r="T20">
+        <v>0.0008731462364425392</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.567446666666667</v>
+      </c>
+      <c r="H21">
+        <v>4.70234</v>
+      </c>
+      <c r="I21">
+        <v>0.04481883073704414</v>
+      </c>
+      <c r="J21">
+        <v>0.0483467754965537</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.34114</v>
+      </c>
+      <c r="N21">
+        <v>0.68228</v>
+      </c>
+      <c r="O21">
+        <v>0.117040508902407</v>
+      </c>
+      <c r="P21">
+        <v>0.08119469542587825</v>
+      </c>
+      <c r="Q21">
+        <v>0.5347187558666667</v>
+      </c>
+      <c r="R21">
+        <v>3.2083125352</v>
+      </c>
+      <c r="S21">
+        <v>0.005245618757874488</v>
+      </c>
+      <c r="T21">
+        <v>0.003925501711265991</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>4.646261</v>
+      </c>
+      <c r="H22">
+        <v>9.292522</v>
+      </c>
+      <c r="I22">
+        <v>0.1328529957334834</v>
+      </c>
+      <c r="J22">
+        <v>0.09554040646375765</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.445194666666667</v>
+      </c>
+      <c r="N22">
+        <v>7.335584</v>
+      </c>
+      <c r="O22">
+        <v>0.838913138746902</v>
+      </c>
+      <c r="P22">
+        <v>0.872970787141563</v>
+      </c>
+      <c r="Q22">
+        <v>11.36101261714133</v>
+      </c>
+      <c r="R22">
+        <v>68.166075702848</v>
+      </c>
+      <c r="S22">
+        <v>0.1114521236427053</v>
+      </c>
+      <c r="T22">
+        <v>0.08340398383449138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>4.646261</v>
+      </c>
+      <c r="H23">
+        <v>9.292522</v>
+      </c>
+      <c r="I23">
+        <v>0.1328529957334834</v>
+      </c>
+      <c r="J23">
+        <v>0.09554040646375765</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.07779633333333334</v>
+      </c>
+      <c r="N23">
+        <v>0.233389</v>
+      </c>
+      <c r="O23">
+        <v>0.02669086722188728</v>
+      </c>
+      <c r="P23">
+        <v>0.02777444563925412</v>
+      </c>
+      <c r="Q23">
+        <v>0.3614620695096667</v>
+      </c>
+      <c r="R23">
+        <v>2.168772417058</v>
+      </c>
+      <c r="S23">
+        <v>0.003545961669152363</v>
+      </c>
+      <c r="T23">
+        <v>0.002653581825679879</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>4.646261</v>
+      </c>
+      <c r="H24">
+        <v>9.292522</v>
+      </c>
+      <c r="I24">
+        <v>0.1328529957334834</v>
+      </c>
+      <c r="J24">
+        <v>0.09554040646375765</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.05058633333333334</v>
+      </c>
+      <c r="N24">
+        <v>0.151759</v>
+      </c>
+      <c r="O24">
+        <v>0.0173554851288038</v>
+      </c>
+      <c r="P24">
+        <v>0.01806007179330459</v>
+      </c>
+      <c r="Q24">
+        <v>0.2350373076996667</v>
+      </c>
+      <c r="R24">
+        <v>1.410223846198</v>
+      </c>
+      <c r="S24">
+        <v>0.002305728191769507</v>
+      </c>
+      <c r="T24">
+        <v>0.001725466599896965</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>4.646261</v>
+      </c>
+      <c r="H25">
+        <v>9.292522</v>
+      </c>
+      <c r="I25">
+        <v>0.1328529957334834</v>
+      </c>
+      <c r="J25">
+        <v>0.09554040646375765</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.5</v>
+      </c>
+      <c r="M25">
+        <v>0.34114</v>
+      </c>
+      <c r="N25">
+        <v>0.68228</v>
+      </c>
+      <c r="O25">
+        <v>0.117040508902407</v>
+      </c>
+      <c r="P25">
+        <v>0.08119469542587825</v>
+      </c>
+      <c r="Q25">
+        <v>1.58502547754</v>
+      </c>
+      <c r="R25">
+        <v>6.34010191016</v>
+      </c>
+      <c r="S25">
+        <v>0.01554918222985621</v>
+      </c>
+      <c r="T25">
+        <v>0.007757374203689412</v>
       </c>
     </row>
   </sheetData>
